--- a/Cuentas/Accounts_reclamos.xlsx
+++ b/Cuentas/Accounts_reclamos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Katalon Studio\Novedat\Cuentas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BD8273-1287-4280-87B4-EA0678162911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03613E7F-8996-46D4-8304-30C4E7E10061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="20865" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +477,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
